--- a/qc_stats_WGS_devils.xlsx
+++ b/qc_stats_WGS_devils.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23600" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fq_bam" sheetId="1" r:id="rId1"/>
+    <sheet name="vcf" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>53T</t>
   </si>
@@ -41,22 +42,10 @@
     <t>Sample</t>
   </si>
   <si>
-    <t># Raw reads</t>
-  </si>
-  <si>
-    <t># cleaned reads</t>
-  </si>
-  <si>
-    <t>coverage</t>
-  </si>
-  <si>
     <t># mapped reads</t>
   </si>
   <si>
     <t># raw SNP</t>
-  </si>
-  <si>
-    <t># raw indels</t>
   </si>
   <si>
     <t># filtered SNP</t>
@@ -64,12 +53,51 @@
   <si>
     <t># filtered indels</t>
   </si>
+  <si>
+    <t># Raw reads PE1</t>
+  </si>
+  <si>
+    <t># Raw reads PE2</t>
+  </si>
+  <si>
+    <t># cleaned reads PE1</t>
+  </si>
+  <si>
+    <t># cleaned reads PE2</t>
+  </si>
+  <si>
+    <t># cleaned reads SE</t>
+  </si>
+  <si>
+    <t>RFQC</t>
+  </si>
+  <si>
+    <t>RFQC=running fastqc</t>
+  </si>
+  <si>
+    <t>mean coverage per loci</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t># raw insertions</t>
+  </si>
+  <si>
+    <t># raw deletions</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,16 +105,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,14 +142,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,117 +491,1638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="16" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="15"/>
+    <col min="11" max="11" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>165495</v>
+      </c>
+      <c r="B2" s="14">
+        <v>499033013</v>
+      </c>
+      <c r="C2" s="14">
+        <v>499033013</v>
+      </c>
+      <c r="D2" s="14">
+        <v>367286546</v>
+      </c>
+      <c r="E2" s="14">
+        <v>367286546</v>
+      </c>
+      <c r="F2" s="14">
+        <v>127823348</v>
+      </c>
+      <c r="G2" s="15">
+        <v>854544837</v>
+      </c>
+      <c r="H2" s="16">
+        <v>39.082099999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>165498</v>
+      </c>
+      <c r="B3" s="14">
+        <v>518582324</v>
+      </c>
+      <c r="C3" s="14">
+        <v>518582324</v>
+      </c>
+      <c r="D3" s="14">
+        <v>370620129</v>
+      </c>
+      <c r="E3" s="14">
+        <v>370620129</v>
+      </c>
+      <c r="F3" s="14">
+        <v>144170924</v>
+      </c>
+      <c r="G3" s="15">
+        <v>879787736</v>
+      </c>
+      <c r="H3" s="16">
+        <v>40.340299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>165501</v>
+      </c>
+      <c r="B4" s="14">
+        <v>386471821</v>
+      </c>
+      <c r="C4" s="14">
+        <v>386471821</v>
+      </c>
+      <c r="D4" s="14">
+        <v>277836791</v>
+      </c>
+      <c r="E4" s="14">
+        <v>277836791</v>
+      </c>
+      <c r="F4" s="14">
+        <v>105654249</v>
+      </c>
+      <c r="G4" s="15">
+        <v>655696997</v>
+      </c>
+      <c r="H4" s="16">
+        <v>29.942599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>165503</v>
+      </c>
+      <c r="B5" s="14">
+        <v>496387054</v>
+      </c>
+      <c r="C5" s="14">
+        <v>496387054</v>
+      </c>
+      <c r="D5" s="14">
+        <v>376277488</v>
+      </c>
+      <c r="E5" s="14">
+        <v>376277488</v>
+      </c>
+      <c r="F5" s="14">
+        <v>116212270</v>
+      </c>
+      <c r="H5" s="16">
+        <v>38.886699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14">
+        <v>69588674</v>
+      </c>
+      <c r="C6" s="14">
+        <v>69588674</v>
+      </c>
+      <c r="D6" s="14">
+        <v>50912790</v>
+      </c>
+      <c r="E6" s="14">
+        <v>50912790</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17587998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>648883455</v>
+      </c>
+      <c r="H6" s="18">
+        <v>28.744700000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>165506</v>
+      </c>
+      <c r="B7" s="14">
+        <v>324217555</v>
+      </c>
+      <c r="C7" s="14">
+        <v>324217555</v>
+      </c>
+      <c r="D7" s="14">
+        <v>243076533</v>
+      </c>
+      <c r="E7" s="14">
+        <v>243076533</v>
+      </c>
+      <c r="F7" s="14">
+        <v>78960862</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>165499</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1052616788</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1052616788</v>
+      </c>
+      <c r="D9" s="14">
+        <v>687228509</v>
+      </c>
+      <c r="E9" s="14">
+        <v>687228509</v>
+      </c>
+      <c r="F9" s="14">
+        <v>352041449</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1711155892</v>
+      </c>
+      <c r="H9" s="16">
+        <v>78.612099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>165500</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1595070740</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1595070740</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1595070740</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1595070740</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15">
+        <v>814524500</v>
+      </c>
+      <c r="H10" s="19">
+        <v>35.567900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>165502</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1322685817</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1322685817</v>
+      </c>
+      <c r="D11" s="14">
+        <v>799586292</v>
+      </c>
+      <c r="E11" s="14">
+        <v>799586292</v>
+      </c>
+      <c r="F11" s="14">
+        <v>514160223</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2100978633</v>
+      </c>
+      <c r="H11" s="16">
+        <v>96.887699999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>165504</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1221175083</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1221175083</v>
+      </c>
+      <c r="D12" s="14">
+        <v>838404725</v>
+      </c>
+      <c r="E12" s="14">
+        <v>838404725</v>
+      </c>
+      <c r="F12" s="14">
+        <v>366665861</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2025227400</v>
+      </c>
+      <c r="H12" s="16">
+        <v>91.8142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>165505</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1349466969</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1349466969</v>
+      </c>
+      <c r="D13" s="14">
+        <v>858046295</v>
+      </c>
+      <c r="E13" s="14">
+        <v>858046295</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1954287878</v>
+      </c>
+      <c r="H13" s="16">
+        <v>90.386300000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1355223216</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1355223216</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1197614781</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1197614781</v>
+      </c>
+      <c r="F14" s="14">
+        <v>137348694</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>670067174</v>
+      </c>
+      <c r="C15" s="14">
+        <v>670067174</v>
+      </c>
+      <c r="D15" s="15">
+        <v>603558177</v>
+      </c>
+      <c r="E15" s="15">
+        <v>603558177</v>
+      </c>
+      <c r="F15" s="14">
+        <v>60137024</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13">
+        <f>SUM(B2:B15)/13</f>
+        <v>835429709.84615386</v>
+      </c>
+      <c r="C17" s="13">
+        <f>SUM(C2:C15)/13</f>
+        <v>835429709.84615386</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" ref="D17:F17" si="0">SUM(D2:D15)/13</f>
+        <v>635809215.07692313</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>635809215.07692313</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>155443300.15384614</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="H18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>165495</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7">
+        <v>165498</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="7">
+        <v>165501</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="7">
+        <v>165503</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="8">
+        <v>165506</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="7">
+        <v>165499</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="7">
+        <v>165500</v>
+      </c>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="7">
+        <v>165502</v>
+      </c>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="7">
+        <v>165504</v>
+      </c>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="7">
+        <v>165505</v>
+      </c>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+    </row>
+    <row r="3" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G3" s="9">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9">
+        <v>4</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2</v>
+      </c>
+      <c r="R3" s="9">
+        <v>3</v>
+      </c>
+      <c r="S3" s="9">
+        <v>4</v>
+      </c>
+      <c r="T3" s="9">
+        <v>5</v>
+      </c>
+      <c r="U3" s="9">
+        <v>6</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="9">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BJ3" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK3" s="9">
+        <v>6</v>
+      </c>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BQ3" s="9">
+        <v>5</v>
+      </c>
+      <c r="BR3" s="9">
+        <v>6</v>
+      </c>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BW3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BX3" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY3" s="9">
+        <v>6</v>
+      </c>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="9">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="9">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="9">
+        <v>4</v>
+      </c>
+      <c r="CE3" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF3" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>106557</v>
+      </c>
+      <c r="C4" s="3">
+        <v>122244</v>
+      </c>
+      <c r="D4" s="3">
+        <v>104786</v>
+      </c>
+      <c r="E4" s="3">
+        <v>75653</v>
+      </c>
+      <c r="F4" s="3">
+        <v>54353</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50022</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>106557</v>
+      </c>
+      <c r="J4" s="3">
+        <v>127188</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>79371</v>
+      </c>
+      <c r="M4" s="3">
+        <v>51827</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>107119</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>124324</v>
+      </c>
+      <c r="R4" s="3">
+        <v>110100</v>
+      </c>
+      <c r="S4" s="3">
+        <v>72654</v>
+      </c>
+      <c r="T4" s="3">
+        <v>50321</v>
+      </c>
+      <c r="U4" s="3">
+        <v>47001</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
+        <v>111776</v>
+      </c>
+      <c r="X4" s="3">
+        <v>129872</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>118890</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>79930</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>54911</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>54287</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3">
+        <v>79870</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>458487</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>82147</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>273380</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>196341</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>182223</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3">
+        <v>654</v>
+      </c>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+    </row>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>64359</v>
+      </c>
+      <c r="C5" s="3">
+        <v>68997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>64173</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44724</v>
+      </c>
+      <c r="F5" s="3">
+        <v>33466</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27395</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>64359</v>
+      </c>
+      <c r="J5" s="3">
+        <v>71143</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>47086</v>
+      </c>
+      <c r="M5" s="3">
+        <v>31516</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>65428</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>71526</v>
+      </c>
+      <c r="R5" s="3">
+        <v>66918</v>
+      </c>
+      <c r="S5" s="3">
+        <v>43184</v>
+      </c>
+      <c r="T5" s="3">
+        <v>30569</v>
+      </c>
+      <c r="U5" s="3">
+        <v>26176</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
+        <v>67619</v>
+      </c>
+      <c r="X5" s="3">
+        <v>72186</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>71686</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>47209</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>33130</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>29922</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3">
+        <v>49934</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>54899</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>50493</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>31886</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>22318</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>20101</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3">
+        <v>418</v>
+      </c>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+    </row>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>614497</v>
+      </c>
+      <c r="C6" s="3">
+        <v>683334</v>
+      </c>
+      <c r="D6" s="3">
+        <v>591886</v>
+      </c>
+      <c r="E6" s="3">
+        <v>421873</v>
+      </c>
+      <c r="F6" s="3">
+        <v>309030</v>
+      </c>
+      <c r="G6" s="3">
+        <v>269526</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>614497</v>
+      </c>
+      <c r="J6" s="3">
+        <v>701426</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>442023</v>
+      </c>
+      <c r="M6" s="3">
+        <v>301834</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>604503</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>671855</v>
+      </c>
+      <c r="R6" s="3">
+        <v>635027</v>
+      </c>
+      <c r="S6" s="3">
+        <v>400188</v>
+      </c>
+      <c r="T6" s="3">
+        <v>286147</v>
+      </c>
+      <c r="U6" s="3">
+        <v>253493</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
+        <v>632326</v>
+      </c>
+      <c r="X6" s="3">
+        <v>709528</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>678880</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>440077</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>308129</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>287973</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3">
+        <v>407854</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>94707</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>439299</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>55071</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>36886</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>36357</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3">
+        <v>10386</v>
+      </c>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+    </row>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60769199</v>
+      </c>
+      <c r="C7" s="3">
+        <v>65251188</v>
+      </c>
+      <c r="D7" s="3">
+        <v>54934450</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43314776</v>
+      </c>
+      <c r="F7" s="3">
+        <v>26775875</v>
+      </c>
+      <c r="G7" s="3">
+        <v>23382063</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>60769199</v>
+      </c>
+      <c r="J7" s="3">
+        <v>63957075</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>41840604</v>
+      </c>
+      <c r="M7" s="3">
+        <v>25883277</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
+        <v>102683738</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>109995483</v>
+      </c>
+      <c r="R7" s="3">
+        <v>94381570</v>
+      </c>
+      <c r="S7" s="3">
+        <v>72791704</v>
+      </c>
+      <c r="T7" s="3">
+        <v>44923956</v>
+      </c>
+      <c r="U7" s="3">
+        <v>39464443</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
+        <v>67104023</v>
+      </c>
+      <c r="X7" s="3">
+        <v>72584758</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>62016431</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>47361220</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>29884217</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>26478857</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3">
+        <v>345832</v>
+      </c>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>165495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>165498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>165499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>165500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>165501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>165502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>165503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>165504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>165505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>165506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AY2:BD2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BT2:BY2"/>
+    <mergeCell ref="CA2:CF2"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AK1:CF1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AR2:AW2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/qc_stats_WGS_devils.xlsx
+++ b/qc_stats_WGS_devils.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fq_bam" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>53T</t>
   </si>
@@ -91,13 +91,82 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>Chask_ear</t>
+  </si>
+  <si>
+    <t>GGATCATC</t>
+  </si>
+  <si>
+    <t>Chask_T1</t>
+  </si>
+  <si>
+    <t>GTGAACGT</t>
+  </si>
+  <si>
+    <t>Huenc_ear</t>
+  </si>
+  <si>
+    <t>AGGTTGCT</t>
+  </si>
+  <si>
+    <t>Leesa_T1</t>
+  </si>
+  <si>
+    <t>TATTGGCG</t>
+  </si>
+  <si>
+    <t>Chesh_T3</t>
+  </si>
+  <si>
+    <t>GTAGCAGT</t>
+  </si>
+  <si>
+    <t>Chesh_ear</t>
+  </si>
+  <si>
+    <t>ATCCATGG</t>
+  </si>
+  <si>
+    <t>Esqui_T1</t>
+  </si>
+  <si>
+    <t>CGATTACA</t>
+  </si>
+  <si>
+    <t>Esqui_ear</t>
+  </si>
+  <si>
+    <t>TTGCCTCA</t>
+  </si>
+  <si>
+    <t>Leesa_ear</t>
+  </si>
+  <si>
+    <t>ATTAAGCG</t>
+  </si>
+  <si>
+    <t>Chesh_T1</t>
+  </si>
+  <si>
+    <t>TGATGCGA</t>
+  </si>
+  <si>
+    <t>Mean # of reads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,9 +183,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -189,30 +267,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,421 +582,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="15" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="16" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="15"/>
-    <col min="11" max="11" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="13" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="12"/>
+    <col min="13" max="13" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>165495</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="23">
         <v>499033013</v>
       </c>
-      <c r="C2" s="14">
+      <c r="E2" s="23">
         <v>499033013</v>
       </c>
-      <c r="D2" s="14">
+      <c r="F2" s="23">
         <v>367286546</v>
       </c>
-      <c r="E2" s="14">
+      <c r="G2" s="23">
         <v>367286546</v>
       </c>
-      <c r="F2" s="14">
+      <c r="H2" s="23">
         <v>127823348</v>
       </c>
-      <c r="G2" s="15">
+      <c r="I2" s="18">
         <v>854544837</v>
       </c>
-      <c r="H2" s="16">
+      <c r="J2" s="19">
         <v>39.082099999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>165498</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="23">
         <v>518582324</v>
       </c>
-      <c r="C3" s="14">
+      <c r="E3" s="23">
         <v>518582324</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="23">
         <v>370620129</v>
       </c>
-      <c r="E3" s="14">
+      <c r="G3" s="23">
         <v>370620129</v>
       </c>
-      <c r="F3" s="14">
+      <c r="H3" s="23">
         <v>144170924</v>
       </c>
-      <c r="G3" s="15">
+      <c r="I3" s="18">
         <v>879787736</v>
       </c>
-      <c r="H3" s="16">
+      <c r="J3" s="19">
         <v>40.340299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>165501</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23">
         <v>386471821</v>
       </c>
-      <c r="C4" s="14">
+      <c r="E4" s="23">
         <v>386471821</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="23">
         <v>277836791</v>
       </c>
-      <c r="E4" s="14">
+      <c r="G4" s="23">
         <v>277836791</v>
       </c>
-      <c r="F4" s="14">
+      <c r="H4" s="23">
         <v>105654249</v>
       </c>
-      <c r="G4" s="15">
+      <c r="I4" s="18">
         <v>655696997</v>
       </c>
-      <c r="H4" s="16">
+      <c r="J4" s="19">
         <v>29.942599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>165503</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="23">
         <v>496387054</v>
       </c>
-      <c r="C5" s="14">
+      <c r="E5" s="23">
         <v>496387054</v>
       </c>
-      <c r="D5" s="14">
+      <c r="F5" s="23">
         <v>376277488</v>
       </c>
-      <c r="E5" s="14">
+      <c r="G5" s="23">
         <v>376277488</v>
       </c>
-      <c r="F5" s="14">
+      <c r="H5" s="23">
         <v>116212270</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="18">
+        <v>862288619</v>
+      </c>
+      <c r="J5" s="19">
         <v>38.886699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="23">
         <v>69588674</v>
       </c>
-      <c r="C6" s="14">
+      <c r="E6" s="23">
         <v>69588674</v>
       </c>
-      <c r="D6" s="14">
+      <c r="F6" s="23">
         <v>50912790</v>
       </c>
-      <c r="E6" s="14">
+      <c r="G6" s="23">
         <v>50912790</v>
       </c>
-      <c r="F6" s="14">
+      <c r="H6" s="23">
         <v>17587998</v>
       </c>
-      <c r="G6" s="17">
+      <c r="I6" s="20">
         <v>648883455</v>
       </c>
-      <c r="H6" s="18">
+      <c r="J6" s="21">
         <v>28.744700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>165506</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="23">
         <v>324217555</v>
       </c>
-      <c r="C7" s="14">
+      <c r="E7" s="23">
         <v>324217555</v>
       </c>
-      <c r="D7" s="14">
+      <c r="F7" s="23">
         <v>243076533</v>
       </c>
-      <c r="E7" s="14">
+      <c r="G7" s="23">
         <v>243076533</v>
       </c>
-      <c r="F7" s="14">
+      <c r="H7" s="23">
         <v>78960862</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="24">
+        <f>SUM(D2:D7)/6</f>
+        <v>382380073.5</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" ref="E8:J8" si="0">SUM(E2:E7)/6</f>
+        <v>382380073.5</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>281001712.83333331</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>281001712.83333331</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>98401608.5</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>650200274</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>29.499399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>165499</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="23">
         <v>1052616788</v>
       </c>
-      <c r="C9" s="14">
+      <c r="E10" s="23">
         <v>1052616788</v>
       </c>
-      <c r="D9" s="14">
+      <c r="F10" s="23">
         <v>687228509</v>
       </c>
-      <c r="E9" s="14">
+      <c r="G10" s="23">
         <v>687228509</v>
       </c>
-      <c r="F9" s="14">
+      <c r="H10" s="23">
         <v>352041449</v>
       </c>
-      <c r="G9" s="15">
+      <c r="I10" s="18">
         <v>1711155892</v>
       </c>
-      <c r="H9" s="16">
+      <c r="J10" s="19">
         <v>78.612099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>165500</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="23">
         <v>1595070740</v>
       </c>
-      <c r="C10" s="14">
+      <c r="E11" s="23">
         <v>1595070740</v>
       </c>
-      <c r="D10" s="14">
+      <c r="F11" s="23">
         <v>1595070740</v>
       </c>
-      <c r="E10" s="14">
+      <c r="G11" s="23">
         <v>1595070740</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15">
+      <c r="I11" s="18">
         <v>814524500</v>
       </c>
-      <c r="H10" s="19">
+      <c r="J11" s="22">
         <v>35.567900000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>165502</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23">
         <v>1322685817</v>
       </c>
-      <c r="C11" s="14">
+      <c r="E12" s="23">
         <v>1322685817</v>
       </c>
-      <c r="D11" s="14">
+      <c r="F12" s="23">
         <v>799586292</v>
       </c>
-      <c r="E11" s="14">
+      <c r="G12" s="23">
         <v>799586292</v>
       </c>
-      <c r="F11" s="14">
+      <c r="H12" s="23">
         <v>514160223</v>
       </c>
-      <c r="G11" s="15">
+      <c r="I12" s="18">
         <v>2100978633</v>
       </c>
-      <c r="H11" s="16">
+      <c r="J12" s="19">
         <v>96.887699999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>165504</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="23">
         <v>1221175083</v>
       </c>
-      <c r="C12" s="14">
+      <c r="E13" s="23">
         <v>1221175083</v>
       </c>
-      <c r="D12" s="14">
+      <c r="F13" s="23">
         <v>838404725</v>
       </c>
-      <c r="E12" s="14">
+      <c r="G13" s="23">
         <v>838404725</v>
       </c>
-      <c r="F12" s="14">
+      <c r="H13" s="23">
         <v>366665861</v>
       </c>
-      <c r="G12" s="15">
+      <c r="I13" s="18">
         <v>2025227400</v>
       </c>
-      <c r="H12" s="16">
+      <c r="J13" s="19">
         <v>91.8142</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>165505</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23">
         <v>1349466969</v>
       </c>
-      <c r="C13" s="14">
+      <c r="E14" s="23">
         <v>1349466969</v>
       </c>
-      <c r="D13" s="14">
+      <c r="F14" s="23">
         <v>858046295</v>
       </c>
-      <c r="E13" s="14">
+      <c r="G14" s="23">
         <v>858046295</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="H14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="15">
+      <c r="I14" s="18">
         <v>1954287878</v>
       </c>
-      <c r="H13" s="16">
+      <c r="J14" s="19">
         <v>90.386300000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <f>SUM(D10:D14)/5</f>
+        <v>1308203079.4000001</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUM(E10:E14)/5</f>
+        <v>1308203079.4000001</v>
+      </c>
+      <c r="F15" s="5">
+        <f>SUM(F10:F14)/5</f>
+        <v>955667312.20000005</v>
+      </c>
+      <c r="G15" s="5">
+        <f>SUM(G10:G14)/5</f>
+        <v>955667312.20000005</v>
+      </c>
+      <c r="H15" s="5">
+        <f>SUM(H10:H14)/5</f>
+        <v>246573506.59999999</v>
+      </c>
+      <c r="I15" s="5">
+        <f>SUM(I10:I14)/5</f>
+        <v>1721234860.5999999</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(J10:J14)/5</f>
+        <v>78.653639999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="23">
         <v>1355223216</v>
       </c>
-      <c r="C14" s="14">
+      <c r="E16" s="23">
         <v>1355223216</v>
       </c>
-      <c r="D14" s="14">
+      <c r="F16" s="23">
         <v>1197614781</v>
       </c>
-      <c r="E14" s="14">
+      <c r="G16" s="23">
         <v>1197614781</v>
       </c>
-      <c r="F14" s="14">
+      <c r="H16" s="23">
         <v>137348694</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="23">
         <v>670067174</v>
       </c>
-      <c r="C15" s="14">
+      <c r="E17" s="23">
         <v>670067174</v>
       </c>
-      <c r="D15" s="15">
+      <c r="F17" s="18">
         <v>603558177</v>
       </c>
-      <c r="E15" s="15">
+      <c r="G17" s="18">
         <v>603558177</v>
       </c>
-      <c r="F15" s="14">
+      <c r="H17" s="23">
         <v>60137024</v>
       </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13">
-        <f>SUM(B2:B15)/13</f>
-        <v>835429709.84615386</v>
-      </c>
-      <c r="C17" s="13">
-        <f>SUM(C2:C15)/13</f>
-        <v>835429709.84615386</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" ref="D17:F17" si="0">SUM(D2:D15)/13</f>
-        <v>635809215.07692313</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="0"/>
-        <v>635809215.07692313</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="0"/>
-        <v>155443300.15384614</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="H18" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1327,9 @@
       <c r="AD2" s="8">
         <v>165506</v>
       </c>
-      <c r="AE2" s="8"/>
+      <c r="AE2" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -1137,7 +1401,9 @@
       <c r="CH2" s="1"/>
     </row>
     <row r="3" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1467,7 +1733,9 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
+      <c r="AS4" s="3">
+        <v>118677</v>
+      </c>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -1612,7 +1880,9 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
+      <c r="AS5" s="3">
+        <v>69146</v>
+      </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -1757,7 +2027,9 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
+      <c r="AS6" s="3">
+        <v>539714</v>
+      </c>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
@@ -1890,7 +2162,9 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
+      <c r="AS7" s="3">
+        <v>6654186</v>
+      </c>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>

--- a/qc_stats_WGS_devils.xlsx
+++ b/qc_stats_WGS_devils.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fq_bam" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>53T</t>
   </si>
@@ -181,13 +181,31 @@
   </si>
   <si>
     <t>Normal (except 195506)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>87T (691,328, SNPs; 317,240indels Murchinson)</t>
+  </si>
+  <si>
+    <t>165500 (only 30x coverage)</t>
+  </si>
+  <si>
+    <t># filtered (minDP 10) deletions</t>
+  </si>
+  <si>
+    <t># filtered (minDP 10) insertions</t>
+  </si>
+  <si>
+    <t># filtered (minDP 10) SNP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +236,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -239,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -541,11 +575,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -620,12 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,12 +797,79 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,16 +880,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,14 +904,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,7 +1201,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,10 +1400,10 @@
       <c r="H6" s="17">
         <v>17587998</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="87">
         <v>648883455</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="86">
         <v>28.744700000000002</v>
       </c>
     </row>
@@ -1197,8 +1432,8 @@
       <c r="H7" s="17">
         <v>78960862</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="49"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1556,15 +1791,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH29"/>
+  <dimension ref="A1:CH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -1573,11 +1808,8 @@
     <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="49" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="51" max="56" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -1585,44 +1817,44 @@
   <sheetData>
     <row r="1" spans="1:86" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="47" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1630,52 +1862,52 @@
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="98">
         <v>165495</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="51">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="93">
         <v>165498</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="51">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="93">
         <v>165501</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="51">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="93">
         <v>165503</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="61" t="s">
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="43"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="38"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
     </row>
@@ -1788,7 +2020,7 @@
       <c r="AJ3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AK3" s="44"/>
+      <c r="AK3" s="39"/>
     </row>
     <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
@@ -1904,7 +2136,7 @@
         <f>SUM(AD4:AI4)</f>
         <v>1272448</v>
       </c>
-      <c r="AK4" s="46">
+      <c r="AK4" s="41">
         <f>SUM(AJ4,AC4,V4,O4,H4)</f>
         <v>3380154</v>
       </c>
@@ -2023,126 +2255,126 @@
         <f t="shared" ref="AJ5:AJ7" si="3">SUM(AD5:AI5)</f>
         <v>229631</v>
       </c>
-      <c r="AK5" s="46">
+      <c r="AK5" s="41">
         <f>SUM(AJ5,AC5,V5,O5,H5)</f>
         <v>1471628</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:86" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="58">
         <v>614497</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="59">
         <v>683334</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="59">
         <v>591886</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="59">
         <v>421873</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="59">
         <v>309030</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="59">
         <v>269526</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="62">
         <f t="shared" si="0"/>
         <v>2890146</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="58">
         <v>614497</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="59">
         <v>701426</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="59">
         <v>671691</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="59">
         <v>442023</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="59">
         <v>301834</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="59">
         <v>283385</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="62">
         <f>SUM(I6:N6)</f>
         <v>3014856</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="58">
         <v>604503</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="59">
         <v>671855</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="59">
         <v>635027</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="59">
         <v>400188</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="59">
         <v>286147</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="59">
         <v>253493</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="62">
         <f t="shared" si="1"/>
         <v>2851213</v>
       </c>
-      <c r="W6" s="36">
+      <c r="W6" s="58">
         <v>632326</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="59">
         <v>709528</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="59">
         <v>678880</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="59">
         <v>440077</v>
       </c>
-      <c r="AA6" s="37">
+      <c r="AA6" s="59">
         <v>308129</v>
       </c>
-      <c r="AB6" s="37">
+      <c r="AB6" s="59">
         <v>287973</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="62">
         <f t="shared" si="2"/>
         <v>3056913</v>
       </c>
-      <c r="AD6" s="36">
+      <c r="AD6" s="58">
         <v>407854</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AE6" s="59">
         <v>94707</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AF6" s="59">
         <v>439299</v>
       </c>
-      <c r="AG6" s="37">
+      <c r="AG6" s="59">
         <v>55071</v>
       </c>
-      <c r="AH6" s="37">
+      <c r="AH6" s="59">
         <v>36886</v>
       </c>
-      <c r="AI6" s="37">
+      <c r="AI6" s="59">
         <v>36357</v>
       </c>
-      <c r="AJ6" s="35">
+      <c r="AJ6" s="57">
         <f t="shared" si="3"/>
         <v>1070174</v>
       </c>
-      <c r="AK6" s="46">
+      <c r="AK6" s="65">
         <f>SUM(AJ6,AC6,V6,O6,H6)</f>
         <v>12883302</v>
       </c>
@@ -2245,132 +2477,132 @@
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-      <c r="AJ7" s="42">
+      <c r="AJ7" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="45"/>
+      <c r="AK7" s="40"/>
     </row>
     <row r="8" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:86" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="57"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="92"/>
     </row>
     <row r="10" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="93">
         <v>165499</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="51">
-        <v>165500</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="51">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="93">
         <v>165502</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="51">
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="93">
         <v>165504</v>
       </c>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="51">
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="93">
         <v>165505</v>
       </c>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="51" t="s">
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="53"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="95"/>
     </row>
     <row r="11" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
@@ -2379,38 +2611,40 @@
       <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="43">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="43">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="43">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="43">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="43">
         <v>6</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="23">
         <v>1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="43">
         <v>2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="43">
         <v>3</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="43">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="43">
         <v>5</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="43">
         <v>6</v>
       </c>
       <c r="O11" s="24" t="s">
@@ -2419,19 +2653,19 @@
       <c r="P11" s="23">
         <v>1</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="43">
         <v>2</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="43">
         <v>3</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="43">
         <v>4</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="43">
         <v>5</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="43">
         <v>6</v>
       </c>
       <c r="V11" s="24" t="s">
@@ -2440,42 +2674,46 @@
       <c r="W11" s="23">
         <v>1</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="43">
         <v>2</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="43">
         <v>3</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="43">
         <v>4</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="43">
         <v>5</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="43">
         <v>6</v>
       </c>
-      <c r="AC11" s="32"/>
+      <c r="AC11" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="AD11" s="23">
         <v>1</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="43">
         <v>2</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="43">
         <v>3</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AG11" s="43">
         <v>4</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AH11" s="43">
         <v>5</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="43">
         <v>6</v>
       </c>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="23">
+      <c r="AJ11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK11" s="47">
         <v>1</v>
       </c>
       <c r="AL11" s="5">
@@ -2517,32 +2755,47 @@
       <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="25">
+        <v>121241</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141902</v>
+      </c>
+      <c r="D12" s="3">
+        <v>125976</v>
+      </c>
+      <c r="E12" s="3">
+        <v>85263</v>
+      </c>
+      <c r="F12" s="3">
+        <v>54439</v>
+      </c>
+      <c r="G12" s="3">
+        <v>57733</v>
+      </c>
+      <c r="H12" s="26">
+        <f>SUM(B12:G12)</f>
+        <v>586554</v>
+      </c>
       <c r="I12" s="25">
         <v>110392</v>
       </c>
       <c r="J12" s="3">
         <v>118677</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="104">
         <v>1149</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="104">
         <v>850</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="104">
         <v>654</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="104">
         <v>398</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="105">
         <f>SUM(I12:N12)</f>
         <v>232120</v>
       </c>
@@ -2568,7 +2821,9 @@
         <f>SUM(P12:U12)</f>
         <v>563141</v>
       </c>
-      <c r="W12" s="25"/>
+      <c r="W12" s="25">
+        <v>119811</v>
+      </c>
       <c r="X12" s="3">
         <v>140179</v>
       </c>
@@ -2584,21 +2839,33 @@
       <c r="AB12" s="3">
         <v>57324</v>
       </c>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AC12" s="26">
+        <f>SUM(W12:AB12)</f>
+        <v>561937</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>107941</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>127030</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>113469</v>
+      </c>
       <c r="AG12" s="3">
         <v>71164</v>
       </c>
       <c r="AH12" s="3">
-        <v>654</v>
+        <v>48238</v>
       </c>
       <c r="AI12" s="3">
         <v>23436</v>
       </c>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="25"/>
+      <c r="AJ12" s="26">
+        <f>SUM(AD12:AI12)</f>
+        <v>491278</v>
+      </c>
+      <c r="AK12" s="48"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -2616,32 +2883,47 @@
       <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="25">
+        <v>73523</v>
+      </c>
+      <c r="C13" s="3">
+        <v>79515</v>
+      </c>
+      <c r="D13" s="3">
+        <v>75634</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50299</v>
+      </c>
+      <c r="F13" s="3">
+        <v>32802</v>
+      </c>
+      <c r="G13" s="3">
+        <v>31583</v>
+      </c>
+      <c r="H13" s="26">
+        <f>SUM(B13:G13)</f>
+        <v>343356</v>
+      </c>
       <c r="I13" s="25">
         <v>68402</v>
       </c>
       <c r="J13" s="3">
         <v>69146</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="104">
         <v>763</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="104">
         <v>534</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="104">
         <v>418</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="104">
         <v>219</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="105">
         <f>SUM(I13:N13)</f>
         <v>139482</v>
       </c>
@@ -2664,10 +2946,12 @@
         <v>29912</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" ref="V13:V15" si="4">SUM(P13:U13)</f>
+        <f t="shared" ref="V13:V21" si="4">SUM(P13:U13)</f>
         <v>328256</v>
       </c>
-      <c r="W13" s="25"/>
+      <c r="W13" s="25">
+        <v>73029</v>
+      </c>
       <c r="X13" s="3">
         <v>78435</v>
       </c>
@@ -2683,21 +2967,33 @@
       <c r="AB13" s="3">
         <v>31063</v>
       </c>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AC13" s="26">
+        <f t="shared" ref="AC13:AC21" si="5">SUM(W13:AB13)</f>
+        <v>329764</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>64483</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>69832</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>65212</v>
+      </c>
       <c r="AG13" s="3">
         <v>39990</v>
       </c>
       <c r="AH13" s="3">
-        <v>418</v>
+        <v>27446</v>
       </c>
       <c r="AI13" s="3">
         <v>12647</v>
       </c>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="25"/>
+      <c r="AJ13" s="26">
+        <f t="shared" ref="AJ13:AJ18" si="6">SUM(AD13:AI13)</f>
+        <v>279610</v>
+      </c>
+      <c r="AK13" s="48"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
@@ -2711,135 +3007,179 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="33"/>
     </row>
-    <row r="14" spans="1:86" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="36">
+      <c r="B14" s="70">
+        <v>633625</v>
+      </c>
+      <c r="C14" s="36">
+        <v>709585</v>
+      </c>
+      <c r="D14" s="36">
+        <v>674479</v>
+      </c>
+      <c r="E14" s="36">
+        <v>426711</v>
+      </c>
+      <c r="F14" s="36">
+        <v>278233</v>
+      </c>
+      <c r="G14" s="36">
+        <v>282183</v>
+      </c>
+      <c r="H14" s="71">
+        <f>SUM(B14:G14)</f>
+        <v>3004816</v>
+      </c>
+      <c r="I14" s="70">
         <v>556974</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>539714</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="104">
         <v>22203</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="106">
         <v>15615</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="104">
         <v>345832</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="104">
         <v>8171</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="105">
         <f>SUM(I14:N14)</f>
         <v>1488509</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="70">
         <v>625612</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <v>581152</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="36">
         <v>543485</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="36">
         <v>410348</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="36">
         <v>283368</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="36">
         <v>270021</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="71">
         <f t="shared" si="4"/>
         <v>2713986</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37">
+      <c r="W14" s="70">
+        <v>611231</v>
+      </c>
+      <c r="X14" s="36">
         <v>687113</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="36">
         <v>487120</v>
       </c>
-      <c r="Z14" s="37">
+      <c r="Z14" s="36">
         <v>401968</v>
       </c>
-      <c r="AA14" s="37">
+      <c r="AA14" s="36">
         <v>290829</v>
       </c>
-      <c r="AB14" s="37">
+      <c r="AB14" s="36">
         <v>273672</v>
       </c>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37">
+      <c r="AC14" s="71">
+        <f t="shared" si="5"/>
+        <v>2751933</v>
+      </c>
+      <c r="AD14" s="70">
+        <v>564008</v>
+      </c>
+      <c r="AE14" s="36">
+        <v>645218</v>
+      </c>
+      <c r="AF14" s="36">
+        <v>607117</v>
+      </c>
+      <c r="AG14" s="36">
         <v>355316</v>
       </c>
-      <c r="AH14" s="37">
-        <v>10386</v>
-      </c>
-      <c r="AI14" s="37">
+      <c r="AH14" s="36">
+        <v>257890</v>
+      </c>
+      <c r="AI14" s="36">
         <v>91217</v>
       </c>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="40"/>
+      <c r="AJ14" s="71">
+        <f t="shared" si="6"/>
+        <v>2520766</v>
+      </c>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="60"/>
     </row>
     <row r="15" spans="1:86" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="44">
+        <v>7297211</v>
+      </c>
+      <c r="C15" s="45">
+        <v>8072348</v>
+      </c>
+      <c r="D15" s="45">
+        <v>7180289</v>
+      </c>
+      <c r="E15" s="45">
+        <v>4638736</v>
+      </c>
+      <c r="F15" s="45">
+        <v>3255557</v>
+      </c>
+      <c r="G15" s="45">
+        <v>2958667</v>
+      </c>
+      <c r="H15" s="29">
+        <f>SUM(B15:G15)</f>
+        <v>33402808</v>
+      </c>
       <c r="I15" s="27">
         <v>6365918</v>
       </c>
       <c r="J15" s="28">
         <v>6654186</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="107">
         <v>765757</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="107">
         <v>553563</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="107">
         <v>10386</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="107">
         <v>297206</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="108">
         <f>SUM(I15:N15)</f>
         <v>14647016</v>
       </c>
@@ -2865,7 +3205,9 @@
         <f t="shared" si="4"/>
         <v>25092284</v>
       </c>
-      <c r="W15" s="27"/>
+      <c r="W15" s="27">
+        <v>6156145</v>
+      </c>
       <c r="X15" s="28">
         <v>6899341</v>
       </c>
@@ -2881,21 +3223,33 @@
       <c r="AB15" s="28">
         <v>2493236</v>
       </c>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
+      <c r="AC15" s="29">
+        <f t="shared" si="5"/>
+        <v>27573421</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>5933932</v>
+      </c>
+      <c r="AE15" s="28">
+        <v>7277494</v>
+      </c>
+      <c r="AF15" s="28">
+        <v>5965229</v>
+      </c>
       <c r="AG15" s="28">
         <v>3483830</v>
       </c>
       <c r="AH15" s="28">
-        <v>345832</v>
+        <v>2552162</v>
       </c>
       <c r="AI15" s="28">
         <v>1018262</v>
       </c>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="27"/>
+      <c r="AJ15" s="29">
+        <f t="shared" si="6"/>
+        <v>26230909</v>
+      </c>
+      <c r="AK15" s="49"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="28"/>
@@ -2944,7 +3298,132 @@
       <c r="CE15" s="19"/>
       <c r="CF15" s="19"/>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="50">
+        <v>104783</v>
+      </c>
+      <c r="C16" s="51">
+        <v>124014</v>
+      </c>
+      <c r="D16" s="51">
+        <v>110423</v>
+      </c>
+      <c r="E16" s="51">
+        <v>74505</v>
+      </c>
+      <c r="F16" s="51">
+        <v>47406</v>
+      </c>
+      <c r="G16" s="51">
+        <v>50778</v>
+      </c>
+      <c r="H16" s="52">
+        <f>SUM(B16:G16)</f>
+        <v>511909</v>
+      </c>
+      <c r="I16" s="53">
+        <v>98326</v>
+      </c>
+      <c r="J16" s="54">
+        <v>106200</v>
+      </c>
+      <c r="K16" s="109">
+        <v>997</v>
+      </c>
+      <c r="L16" s="109">
+        <v>709</v>
+      </c>
+      <c r="M16" s="109">
+        <v>590</v>
+      </c>
+      <c r="N16" s="109">
+        <v>340</v>
+      </c>
+      <c r="O16" s="110">
+        <f t="shared" ref="O16:O21" si="7">SUM(I16:N16)</f>
+        <v>207162</v>
+      </c>
+      <c r="P16" s="53">
+        <v>109367</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>115954</v>
+      </c>
+      <c r="R16" s="54">
+        <v>102144</v>
+      </c>
+      <c r="S16" s="54">
+        <v>75763</v>
+      </c>
+      <c r="T16" s="54">
+        <v>49468</v>
+      </c>
+      <c r="U16" s="54">
+        <v>50462</v>
+      </c>
+      <c r="V16" s="55">
+        <f t="shared" si="4"/>
+        <v>503158</v>
+      </c>
+      <c r="W16" s="53">
+        <v>105061</v>
+      </c>
+      <c r="X16" s="54">
+        <v>123323</v>
+      </c>
+      <c r="Y16" s="54">
+        <v>93315</v>
+      </c>
+      <c r="Z16" s="54">
+        <v>73271</v>
+      </c>
+      <c r="AA16" s="54">
+        <v>48917</v>
+      </c>
+      <c r="AB16" s="54">
+        <v>50820</v>
+      </c>
+      <c r="AC16" s="55">
+        <f t="shared" si="5"/>
+        <v>494707</v>
+      </c>
+      <c r="AD16" s="53">
+        <v>92765</v>
+      </c>
+      <c r="AE16" s="54">
+        <v>108398</v>
+      </c>
+      <c r="AF16" s="54">
+        <v>97962</v>
+      </c>
+      <c r="AG16" s="54">
+        <v>61522</v>
+      </c>
+      <c r="AH16" s="54">
+        <v>41249</v>
+      </c>
+      <c r="AI16" s="54">
+        <v>20315</v>
+      </c>
+      <c r="AJ16" s="56">
+        <f t="shared" si="6"/>
+        <v>422211</v>
+      </c>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
       <c r="AW16" s="19"/>
       <c r="AX16" s="19"/>
       <c r="AY16" s="19"/>
@@ -2982,43 +3461,120 @@
       <c r="CE16" s="19"/>
       <c r="CF16" s="19"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
+    <row r="17" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="25">
+        <v>63588</v>
+      </c>
+      <c r="C17" s="3">
+        <v>68721</v>
+      </c>
+      <c r="D17" s="3">
+        <v>66105</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43527</v>
+      </c>
+      <c r="F17" s="3">
+        <v>28505</v>
+      </c>
+      <c r="G17" s="3">
+        <v>27603</v>
+      </c>
+      <c r="H17" s="52">
+        <f t="shared" ref="H17:H18" si="8">SUM(B17:G17)</f>
+        <v>298049</v>
+      </c>
+      <c r="I17" s="25">
+        <v>60678</v>
+      </c>
+      <c r="J17" s="3">
+        <v>61385</v>
+      </c>
+      <c r="K17" s="104">
+        <v>669</v>
+      </c>
+      <c r="L17" s="104">
+        <v>474</v>
+      </c>
+      <c r="M17" s="104">
+        <v>383</v>
+      </c>
+      <c r="N17" s="104">
+        <v>195</v>
+      </c>
+      <c r="O17" s="111">
+        <f t="shared" si="7"/>
+        <v>123784</v>
+      </c>
+      <c r="P17" s="25">
+        <v>65166</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>65597</v>
+      </c>
+      <c r="R17" s="3">
+        <v>61580</v>
+      </c>
+      <c r="S17" s="3">
+        <v>42366</v>
+      </c>
+      <c r="T17" s="3">
+        <v>28707</v>
+      </c>
+      <c r="U17" s="3">
+        <v>26322</v>
+      </c>
+      <c r="V17" s="46">
+        <f t="shared" si="4"/>
+        <v>289738</v>
+      </c>
+      <c r="W17" s="25">
+        <v>63580</v>
+      </c>
+      <c r="X17" s="3">
+        <v>67890</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>58606</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>41666</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>28735</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>27191</v>
+      </c>
+      <c r="AC17" s="46">
+        <f t="shared" si="5"/>
+        <v>287668</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>54895</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>58419</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>55333</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>33879</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>23147</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>10733</v>
+      </c>
+      <c r="AJ17" s="26">
+        <f t="shared" si="6"/>
+        <v>236406</v>
+      </c>
       <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
@@ -3031,126 +3587,286 @@
       <c r="AT17" s="19"/>
       <c r="AU17" s="19"/>
       <c r="AV17" s="19"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="19"/>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="19"/>
+      <c r="BJ17" s="19"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="19"/>
+      <c r="BM17" s="19"/>
+      <c r="BN17" s="19"/>
+      <c r="BO17" s="19"/>
+      <c r="BP17" s="19"/>
+      <c r="BQ17" s="19"/>
+      <c r="BR17" s="19"/>
+      <c r="BS17" s="19"/>
+      <c r="BT17" s="19"/>
+      <c r="BU17" s="19"/>
+      <c r="BV17" s="19"/>
+      <c r="BW17" s="19"/>
+      <c r="BX17" s="19"/>
+      <c r="BY17" s="19"/>
+      <c r="BZ17" s="19"/>
+      <c r="CA17" s="19"/>
+      <c r="CB17" s="19"/>
+      <c r="CC17" s="19"/>
+      <c r="CD17" s="19"/>
+      <c r="CE17" s="19"/>
+      <c r="CF17" s="19"/>
+    </row>
+    <row r="18" spans="1:84" s="64" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>2</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3</v>
-      </c>
-      <c r="L19" s="5">
-        <v>4</v>
-      </c>
-      <c r="M19" s="5">
-        <v>5</v>
-      </c>
-      <c r="N19" s="5">
-        <v>6</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
+      <c r="B18" s="73">
+        <v>482902</v>
+      </c>
+      <c r="C18" s="74">
+        <v>541284</v>
+      </c>
+      <c r="D18" s="74">
+        <v>530030</v>
+      </c>
+      <c r="E18" s="74">
+        <v>330163</v>
+      </c>
+      <c r="F18" s="74">
+        <v>216700</v>
+      </c>
+      <c r="G18" s="74">
+        <v>222885</v>
+      </c>
+      <c r="H18" s="52">
+        <f t="shared" si="8"/>
+        <v>2323964</v>
+      </c>
+      <c r="I18" s="73">
+        <v>452754</v>
+      </c>
+      <c r="J18" s="74">
+        <v>439803</v>
+      </c>
+      <c r="K18" s="112">
+        <v>18860</v>
+      </c>
+      <c r="L18" s="112">
+        <v>13419</v>
+      </c>
+      <c r="M18" s="112">
+        <v>9040</v>
+      </c>
+      <c r="N18" s="112">
+        <v>7012</v>
+      </c>
+      <c r="O18" s="111">
+        <f t="shared" si="7"/>
+        <v>940888</v>
+      </c>
+      <c r="P18" s="73">
+        <v>500412</v>
+      </c>
+      <c r="Q18" s="74">
+        <v>468126</v>
+      </c>
+      <c r="R18" s="74">
+        <v>440723</v>
+      </c>
+      <c r="S18" s="74">
+        <v>330061</v>
+      </c>
+      <c r="T18" s="74">
+        <v>230783</v>
+      </c>
+      <c r="U18" s="74">
+        <v>221091</v>
+      </c>
+      <c r="V18" s="75">
+        <f t="shared" si="4"/>
+        <v>2191196</v>
+      </c>
+      <c r="W18" s="73">
+        <v>482695</v>
+      </c>
+      <c r="X18" s="74">
+        <v>539158</v>
+      </c>
+      <c r="Y18" s="74">
+        <v>391698</v>
+      </c>
+      <c r="Z18" s="74">
+        <v>321831</v>
+      </c>
+      <c r="AA18" s="74">
+        <v>233532</v>
+      </c>
+      <c r="AB18" s="74">
+        <v>223872</v>
+      </c>
+      <c r="AC18" s="75">
+        <f t="shared" si="5"/>
+        <v>2192786</v>
+      </c>
+      <c r="AD18" s="73">
+        <v>441813</v>
+      </c>
+      <c r="AE18" s="74">
+        <v>498490</v>
+      </c>
+      <c r="AF18" s="74">
+        <v>487594</v>
+      </c>
+      <c r="AG18" s="74">
+        <v>283417</v>
+      </c>
+      <c r="AH18" s="74">
+        <v>207194</v>
+      </c>
+      <c r="AI18" s="74">
+        <v>72289</v>
+      </c>
+      <c r="AJ18" s="75">
+        <f t="shared" si="6"/>
+        <v>1990797</v>
+      </c>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
+      <c r="BQ18" s="61"/>
+      <c r="BR18" s="61"/>
+      <c r="BS18" s="61"/>
+      <c r="BT18" s="61"/>
+      <c r="BU18" s="61"/>
+      <c r="BV18" s="61"/>
+      <c r="BW18" s="61"/>
+      <c r="BX18" s="61"/>
+      <c r="BY18" s="61"/>
+      <c r="BZ18" s="61"/>
+      <c r="CA18" s="61"/>
+      <c r="CB18" s="61"/>
+      <c r="CC18" s="61"/>
+      <c r="CD18" s="61"/>
+      <c r="CE18" s="61"/>
+      <c r="CF18" s="61"/>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50">
+        <v>95867</v>
+      </c>
+      <c r="J19" s="51">
+        <v>103288</v>
+      </c>
+      <c r="K19" s="113">
+        <v>138</v>
+      </c>
+      <c r="L19" s="113">
+        <v>95</v>
+      </c>
+      <c r="M19" s="113">
+        <v>64</v>
+      </c>
+      <c r="N19" s="113">
+        <v>51</v>
+      </c>
+      <c r="O19" s="114">
+        <f t="shared" si="7"/>
+        <v>199503</v>
+      </c>
+      <c r="P19" s="50">
+        <v>107183</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>113800</v>
+      </c>
+      <c r="R19" s="51">
+        <v>100227</v>
+      </c>
+      <c r="S19" s="51">
+        <v>74315</v>
+      </c>
+      <c r="T19" s="51">
+        <v>48512</v>
+      </c>
+      <c r="U19" s="51">
+        <v>49733</v>
+      </c>
+      <c r="V19" s="85">
+        <f t="shared" si="4"/>
+        <v>493770</v>
+      </c>
+      <c r="W19" s="50">
+        <v>102697</v>
+      </c>
+      <c r="X19" s="51">
+        <v>120513</v>
+      </c>
+      <c r="Y19" s="51">
+        <v>91172</v>
+      </c>
+      <c r="Z19" s="51">
+        <v>71703</v>
+      </c>
+      <c r="AA19" s="51">
+        <v>47798</v>
+      </c>
+      <c r="AB19" s="51">
+        <v>50041</v>
+      </c>
+      <c r="AC19" s="85">
+        <f t="shared" si="5"/>
+        <v>483924</v>
+      </c>
+      <c r="AD19" s="50">
+        <v>90609</v>
+      </c>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51">
+        <v>60138</v>
+      </c>
+      <c r="AH19" s="51">
+        <v>40323</v>
+      </c>
+      <c r="AI19" s="51">
+        <v>19936</v>
+      </c>
+      <c r="AJ19" s="52"/>
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19"/>
@@ -3164,60 +3880,98 @@
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3">
-        <v>112221</v>
-      </c>
-      <c r="C20" s="3">
-        <v>135971</v>
-      </c>
-      <c r="D20" s="3">
-        <v>118772</v>
-      </c>
-      <c r="E20" s="3">
-        <v>79797</v>
-      </c>
-      <c r="F20" s="3">
-        <v>56738</v>
-      </c>
-      <c r="G20" s="3">
-        <v>55233</v>
-      </c>
-      <c r="H20" s="21">
-        <f>SUM(B20:G20)</f>
-        <v>558732</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="25">
+        <v>57497</v>
+      </c>
+      <c r="J20" s="3">
+        <v>57735</v>
+      </c>
+      <c r="K20" s="104">
+        <v>64</v>
+      </c>
+      <c r="L20" s="104">
+        <v>40</v>
+      </c>
+      <c r="M20" s="104">
+        <v>43</v>
+      </c>
+      <c r="N20" s="104">
+        <v>19</v>
+      </c>
+      <c r="O20" s="105">
+        <f t="shared" si="7"/>
+        <v>115398</v>
+      </c>
+      <c r="P20" s="25">
+        <v>62651</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>62964</v>
+      </c>
+      <c r="R20" s="3">
+        <v>59256</v>
+      </c>
+      <c r="S20" s="3">
+        <v>40696</v>
+      </c>
+      <c r="T20" s="3">
+        <v>27529</v>
+      </c>
+      <c r="U20" s="3">
+        <v>25382</v>
+      </c>
+      <c r="V20" s="71">
+        <f t="shared" si="4"/>
+        <v>278478</v>
+      </c>
+      <c r="W20" s="25">
+        <v>60661</v>
+      </c>
+      <c r="X20" s="3">
+        <v>64601</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>55974</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>39812</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>27469</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>26125</v>
+      </c>
+      <c r="AC20" s="71">
+        <f t="shared" si="5"/>
+        <v>274642</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>52130</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3">
+        <v>32084</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>22021</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>10226</v>
+      </c>
+      <c r="AJ20" s="33"/>
       <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
       <c r="AM20" s="19"/>
@@ -3231,60 +3985,98 @@
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3">
-        <v>81714</v>
-      </c>
-      <c r="C21" s="3">
-        <v>91456</v>
-      </c>
-      <c r="D21" s="3">
-        <v>85420</v>
-      </c>
-      <c r="E21" s="3">
-        <v>56923</v>
-      </c>
-      <c r="F21" s="3">
-        <v>41368</v>
-      </c>
-      <c r="G21" s="3">
-        <v>35957</v>
-      </c>
-      <c r="H21" s="21">
-        <f t="shared" ref="H21:H22" si="5">SUM(B21:G21)</f>
-        <v>392838</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
+    <row r="21" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="27">
+        <v>431752</v>
+      </c>
+      <c r="J21" s="28">
+        <v>412895</v>
+      </c>
+      <c r="K21" s="107">
+        <v>3130</v>
+      </c>
+      <c r="L21" s="107">
+        <v>2238</v>
+      </c>
+      <c r="M21" s="107">
+        <v>1504</v>
+      </c>
+      <c r="N21" s="107">
+        <v>1132</v>
+      </c>
+      <c r="O21" s="108">
+        <f t="shared" si="7"/>
+        <v>852651</v>
+      </c>
+      <c r="P21" s="27">
+        <v>479064</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>446448</v>
+      </c>
+      <c r="R21" s="28">
+        <v>421830</v>
+      </c>
+      <c r="S21" s="28">
+        <v>315563</v>
+      </c>
+      <c r="T21" s="28">
+        <v>222031</v>
+      </c>
+      <c r="U21" s="28">
+        <v>214506</v>
+      </c>
+      <c r="V21" s="68">
+        <f t="shared" si="4"/>
+        <v>2099442</v>
+      </c>
+      <c r="W21" s="27">
+        <v>460036</v>
+      </c>
+      <c r="X21" s="28">
+        <v>512933</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>373597</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>307343</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>224329</v>
+      </c>
+      <c r="AB21" s="28">
+        <v>216979</v>
+      </c>
+      <c r="AC21" s="68">
+        <f t="shared" si="5"/>
+        <v>2095217</v>
+      </c>
+      <c r="AD21" s="27">
+        <v>419889</v>
+      </c>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28">
+        <v>269465</v>
+      </c>
+      <c r="AH21" s="28">
+        <v>198255</v>
+      </c>
+      <c r="AI21" s="28">
+        <v>68736</v>
+      </c>
+      <c r="AJ21" s="34"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
@@ -3298,173 +4090,411 @@
       <c r="AU21" s="19"/>
       <c r="AV21" s="19"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+    </row>
+    <row r="24" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="69">
+        <v>1</v>
+      </c>
+      <c r="C24" s="69">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69">
+        <v>3</v>
+      </c>
+      <c r="E24" s="69">
+        <v>4</v>
+      </c>
+      <c r="F24" s="69">
+        <v>5</v>
+      </c>
+      <c r="G24" s="69">
+        <v>6</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="69">
+        <v>1</v>
+      </c>
+      <c r="J24" s="69">
+        <v>2</v>
+      </c>
+      <c r="K24" s="69">
+        <v>3</v>
+      </c>
+      <c r="L24" s="69">
+        <v>4</v>
+      </c>
+      <c r="M24" s="69">
+        <v>5</v>
+      </c>
+      <c r="N24" s="69">
+        <v>6</v>
+      </c>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A25" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>112221</v>
+      </c>
+      <c r="C25" s="3">
+        <v>135971</v>
+      </c>
+      <c r="D25" s="3">
+        <v>118772</v>
+      </c>
+      <c r="E25" s="3">
+        <v>79797</v>
+      </c>
+      <c r="F25" s="3">
+        <v>56738</v>
+      </c>
+      <c r="G25" s="3">
+        <v>55233</v>
+      </c>
+      <c r="H25" s="21">
+        <f>SUM(B25:G25)</f>
+        <v>558732</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>57761</v>
+      </c>
+      <c r="N25" s="3">
+        <v>57261</v>
+      </c>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A26" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3">
+        <v>81714</v>
+      </c>
+      <c r="C26" s="3">
+        <v>91456</v>
+      </c>
+      <c r="D26" s="3">
+        <v>85420</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56923</v>
+      </c>
+      <c r="F26" s="3">
+        <v>41368</v>
+      </c>
+      <c r="G26" s="3">
+        <v>35957</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" ref="H26:H27" si="9">SUM(B26:G26)</f>
+        <v>392838</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>43961</v>
+      </c>
+      <c r="N26" s="3">
+        <v>38518</v>
+      </c>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B27" s="78">
         <v>562032</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C27" s="78">
         <v>640412</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D27" s="78">
         <v>611499</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E27" s="78">
         <v>385680</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F27" s="78">
         <v>288224</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G27" s="78">
         <v>266051</v>
       </c>
-      <c r="H22" s="48">
-        <f t="shared" si="5"/>
+      <c r="H27" s="79">
+        <f t="shared" si="9"/>
         <v>2753898</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="54" t="s">
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78">
+        <v>294825</v>
+      </c>
+      <c r="N27" s="78">
+        <v>271378</v>
+      </c>
+      <c r="O27" s="80"/>
+    </row>
+    <row r="29" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54" t="s">
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="82"/>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B31" s="69">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C31" s="69">
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D31" s="69">
         <v>3</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E31" s="69">
         <v>4</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F31" s="69">
         <v>5</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G31" s="69">
         <v>6</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5">
+      <c r="H31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="69">
         <v>1</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J31" s="69">
         <v>2</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K31" s="69">
         <v>3</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L31" s="69">
         <v>4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M31" s="69">
         <v>5</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N31" s="69">
         <v>6</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="O31" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A32" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
+        <v>50788</v>
+      </c>
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
+        <v>33377</v>
+      </c>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
+      <c r="B34" s="66">
+        <v>439980</v>
+      </c>
+      <c r="C34" s="66">
+        <v>500584</v>
+      </c>
+      <c r="D34" s="66">
+        <v>485095</v>
+      </c>
+      <c r="E34" s="66">
+        <v>300834</v>
+      </c>
+      <c r="F34" s="66">
         <v>224049</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G34" s="66">
         <v>218281</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="H34" s="84">
+        <f>SUM(B34:G34)</f>
+        <v>2168823</v>
+      </c>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66">
+        <v>208389</v>
+      </c>
+      <c r="O34" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="B1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:O23"/>
     <mergeCell ref="B9:AW9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="I10:O10"/>
@@ -3473,10 +4503,6 @@
     <mergeCell ref="AD10:AJ10"/>
     <mergeCell ref="AK10:AQ10"/>
     <mergeCell ref="AR10:AW10"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qc_stats_WGS_devils.xlsx
+++ b/qc_stats_WGS_devils.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fq_bam" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>53T</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t># filtered (minDP 10) SNP</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -703,8 +706,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -712,8 +778,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,20 +918,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,58 +993,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1198,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1323,7 @@
     <col min="8" max="8" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="9" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="8"/>
+    <col min="11" max="12" width="9.1640625" style="8"/>
     <col min="13" max="13" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="8"/>
@@ -1400,10 +1510,10 @@
       <c r="H6" s="17">
         <v>17587998</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="96">
         <v>648883455</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="95">
         <v>28.744700000000002</v>
       </c>
     </row>
@@ -1432,8 +1542,8 @@
       <c r="H7" s="17">
         <v>78960862</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1735,55 +1845,189 @@
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>165495</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="81">
+        <v>39.082099999999997</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>165498</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="81">
+        <v>40.340299999999999</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>165501</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="81">
+        <v>29.942599999999999</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>165503</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="81">
+        <v>38.886699999999998</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="95">
+        <v>28.744700000000002</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>165506</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="95"/>
       <c r="D28" s="8"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="18">
+        <f t="shared" ref="C29" si="2">SUM(C23:C28)/6</f>
+        <v>29.499399999999998</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="I30" s="9"/>
       <c r="J30" s="8"/>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>165499</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="16">
+        <v>78.612099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>165500</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16">
+        <v>35.567900000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>165502</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="81">
+        <v>96.887699999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>165504</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="81">
+        <v>91.8142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>165505</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="81">
+        <v>90.386300000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="4">
+        <f t="shared" ref="C36" si="3">SUM(C31:C35)/5</f>
+        <v>78.653639999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1791,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH34"/>
+  <dimension ref="A1:CH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,50 +2054,52 @@
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="43" width="9.1640625"/>
     <col min="44" max="45" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="49" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.1640625"/>
     <col min="51" max="56" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
       <c r="AK1" s="42" t="s">
         <v>44</v>
       </c>
@@ -1862,51 +2108,51 @@
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="99">
         <v>165495</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="93">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102">
         <v>165498</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="93">
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="102">
         <v>165501</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="93">
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="102">
         <v>165503</v>
       </c>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="101" t="s">
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="103"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="107"/>
       <c r="AK2" s="38"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
@@ -2486,123 +2732,123 @@
     <row r="8" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:86" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="92"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="112"/>
     </row>
     <row r="10" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="102">
         <v>165499</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="93">
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="102">
         <v>165502</v>
       </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="93">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="102">
         <v>165504</v>
       </c>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="93">
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="102">
         <v>165505</v>
       </c>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="94" t="s">
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
-      <c r="AP10" s="94"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="93" t="s">
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="94"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="94"/>
-      <c r="AW10" s="95"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="104"/>
     </row>
     <row r="11" spans="1:86" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
@@ -2783,19 +3029,19 @@
       <c r="J12" s="3">
         <v>118677</v>
       </c>
-      <c r="K12" s="104">
+      <c r="K12" s="84">
         <v>1149</v>
       </c>
-      <c r="L12" s="104">
+      <c r="L12" s="84">
         <v>850</v>
       </c>
-      <c r="M12" s="104">
+      <c r="M12" s="84">
         <v>654</v>
       </c>
-      <c r="N12" s="104">
+      <c r="N12" s="84">
         <v>398</v>
       </c>
-      <c r="O12" s="105">
+      <c r="O12" s="85">
         <f>SUM(I12:N12)</f>
         <v>232120</v>
       </c>
@@ -2911,19 +3157,19 @@
       <c r="J13" s="3">
         <v>69146</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="84">
         <v>763</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="84">
         <v>534</v>
       </c>
-      <c r="M13" s="104">
+      <c r="M13" s="84">
         <v>418</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="84">
         <v>219</v>
       </c>
-      <c r="O13" s="105">
+      <c r="O13" s="85">
         <f>SUM(I13:N13)</f>
         <v>139482</v>
       </c>
@@ -3039,19 +3285,19 @@
       <c r="J14" s="36">
         <v>539714</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="84">
         <v>22203</v>
       </c>
-      <c r="L14" s="106">
+      <c r="L14" s="86">
         <v>15615</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="84">
         <v>345832</v>
       </c>
-      <c r="N14" s="104">
+      <c r="N14" s="84">
         <v>8171</v>
       </c>
-      <c r="O14" s="105">
+      <c r="O14" s="85">
         <f>SUM(I14:N14)</f>
         <v>1488509</v>
       </c>
@@ -3167,19 +3413,19 @@
       <c r="J15" s="28">
         <v>6654186</v>
       </c>
-      <c r="K15" s="107">
+      <c r="K15" s="87">
         <v>765757</v>
       </c>
-      <c r="L15" s="107">
+      <c r="L15" s="87">
         <v>553563</v>
       </c>
-      <c r="M15" s="107">
+      <c r="M15" s="87">
         <v>10386</v>
       </c>
-      <c r="N15" s="107">
+      <c r="N15" s="87">
         <v>297206</v>
       </c>
-      <c r="O15" s="108">
+      <c r="O15" s="88">
         <f>SUM(I15:N15)</f>
         <v>14647016</v>
       </c>
@@ -3330,19 +3576,19 @@
       <c r="J16" s="54">
         <v>106200</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="89">
         <v>997</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="89">
         <v>709</v>
       </c>
-      <c r="M16" s="109">
+      <c r="M16" s="89">
         <v>590</v>
       </c>
-      <c r="N16" s="109">
+      <c r="N16" s="89">
         <v>340</v>
       </c>
-      <c r="O16" s="110">
+      <c r="O16" s="90">
         <f t="shared" ref="O16:O21" si="7">SUM(I16:N16)</f>
         <v>207162</v>
       </c>
@@ -3493,19 +3739,19 @@
       <c r="J17" s="3">
         <v>61385</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="84">
         <v>669</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="84">
         <v>474</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="84">
         <v>383</v>
       </c>
-      <c r="N17" s="104">
+      <c r="N17" s="84">
         <v>195</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="91">
         <f t="shared" si="7"/>
         <v>123784</v>
       </c>
@@ -3656,19 +3902,19 @@
       <c r="J18" s="74">
         <v>439803</v>
       </c>
-      <c r="K18" s="112">
+      <c r="K18" s="92">
         <v>18860</v>
       </c>
-      <c r="L18" s="112">
+      <c r="L18" s="92">
         <v>13419</v>
       </c>
-      <c r="M18" s="112">
+      <c r="M18" s="92">
         <v>9040</v>
       </c>
-      <c r="N18" s="112">
+      <c r="N18" s="92">
         <v>7012</v>
       </c>
-      <c r="O18" s="111">
+      <c r="O18" s="91">
         <f t="shared" si="7"/>
         <v>940888</v>
       </c>
@@ -3792,19 +4038,19 @@
       <c r="J19" s="51">
         <v>103288</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="93">
         <v>138</v>
       </c>
-      <c r="L19" s="113">
+      <c r="L19" s="93">
         <v>95</v>
       </c>
-      <c r="M19" s="113">
+      <c r="M19" s="93">
         <v>64</v>
       </c>
-      <c r="N19" s="113">
+      <c r="N19" s="93">
         <v>51</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="94">
         <f t="shared" si="7"/>
         <v>199503</v>
       </c>
@@ -3826,7 +4072,7 @@
       <c r="U19" s="51">
         <v>49733</v>
       </c>
-      <c r="V19" s="85">
+      <c r="V19" s="80">
         <f t="shared" si="4"/>
         <v>493770</v>
       </c>
@@ -3848,7 +4094,7 @@
       <c r="AB19" s="51">
         <v>50041</v>
       </c>
-      <c r="AC19" s="85">
+      <c r="AC19" s="80">
         <f t="shared" si="5"/>
         <v>483924</v>
       </c>
@@ -3897,19 +4143,19 @@
       <c r="J20" s="3">
         <v>57735</v>
       </c>
-      <c r="K20" s="104">
+      <c r="K20" s="84">
         <v>64</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="84">
         <v>40</v>
       </c>
-      <c r="M20" s="104">
+      <c r="M20" s="84">
         <v>43</v>
       </c>
-      <c r="N20" s="104">
+      <c r="N20" s="84">
         <v>19</v>
       </c>
-      <c r="O20" s="105">
+      <c r="O20" s="85">
         <f t="shared" si="7"/>
         <v>115398</v>
       </c>
@@ -4002,19 +4248,19 @@
       <c r="J21" s="28">
         <v>412895</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="87">
         <v>3130</v>
       </c>
-      <c r="L21" s="107">
+      <c r="L21" s="87">
         <v>2238</v>
       </c>
-      <c r="M21" s="107">
+      <c r="M21" s="87">
         <v>1504</v>
       </c>
-      <c r="N21" s="107">
+      <c r="N21" s="87">
         <v>1132</v>
       </c>
-      <c r="O21" s="108">
+      <c r="O21" s="88">
         <f t="shared" si="7"/>
         <v>852651</v>
       </c>
@@ -4127,24 +4373,24 @@
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="89"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="109"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -4222,7 +4468,9 @@
       <c r="N24" s="69">
         <v>6</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="33" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="76" t="s">
@@ -4250,17 +4498,28 @@
         <f>SUM(B25:G25)</f>
         <v>558732</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="I25" s="3">
+        <v>124384</v>
+      </c>
+      <c r="J25" s="3">
+        <v>147127</v>
+      </c>
+      <c r="K25" s="3">
+        <v>126272</v>
+      </c>
+      <c r="L25" s="3">
+        <v>85907</v>
+      </c>
       <c r="M25" s="3">
-        <v>57761</v>
+        <v>58289</v>
       </c>
       <c r="N25" s="3">
-        <v>57261</v>
-      </c>
-      <c r="O25" s="33"/>
+        <v>57711</v>
+      </c>
+      <c r="O25" s="33">
+        <f>SUM(I25:N25)</f>
+        <v>599690</v>
+      </c>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="76" t="s">
@@ -4288,17 +4547,28 @@
         <f t="shared" ref="H26:H27" si="9">SUM(B26:G26)</f>
         <v>392838</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="I26" s="3">
+        <v>97522</v>
+      </c>
+      <c r="J26" s="3">
+        <v>107005</v>
+      </c>
+      <c r="K26" s="3">
+        <v>94217</v>
+      </c>
+      <c r="L26" s="3">
+        <v>65639</v>
+      </c>
       <c r="M26" s="3">
-        <v>43961</v>
+        <v>44403</v>
       </c>
       <c r="N26" s="3">
-        <v>38518</v>
-      </c>
-      <c r="O26" s="33"/>
+        <v>38888</v>
+      </c>
+      <c r="O26" s="33">
+        <f t="shared" ref="O26:O27" si="10">SUM(I26:N26)</f>
+        <v>447674</v>
+      </c>
     </row>
     <row r="27" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
@@ -4326,45 +4596,47 @@
         <f t="shared" si="9"/>
         <v>2753898</v>
       </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
+      <c r="I27" s="78">
+        <v>621564</v>
+      </c>
+      <c r="J27" s="78">
+        <v>694478</v>
+      </c>
+      <c r="K27" s="78">
+        <v>640581</v>
+      </c>
+      <c r="L27" s="78">
+        <v>410940</v>
+      </c>
       <c r="M27" s="78">
-        <v>294825</v>
+        <v>298949</v>
       </c>
       <c r="N27" s="78">
-        <v>271378</v>
-      </c>
-      <c r="O27" s="80"/>
+        <v>274160</v>
+      </c>
+      <c r="O27" s="33">
+        <f t="shared" si="10"/>
+        <v>2940672</v>
+      </c>
     </row>
     <row r="29" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="81" t="s">
+      <c r="A30" s="113"/>
+      <c r="B30" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="23">
         <v>1</v>
       </c>
       <c r="C31" s="69">
@@ -4382,117 +4654,249 @@
       <c r="G31" s="69">
         <v>6</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="69">
+    </row>
+    <row r="32" spans="1:84" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="118">
+        <v>439980</v>
+      </c>
+      <c r="C32" s="66">
+        <v>500584</v>
+      </c>
+      <c r="D32" s="66">
+        <v>485095</v>
+      </c>
+      <c r="E32" s="66">
+        <v>300834</v>
+      </c>
+      <c r="F32" s="66">
+        <v>224049</v>
+      </c>
+      <c r="G32" s="66">
+        <v>218281</v>
+      </c>
+      <c r="H32" s="68">
+        <f>SUM(B32:G32)</f>
+        <v>2168823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="123"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="117">
         <v>1</v>
       </c>
-      <c r="J31" s="69">
+      <c r="C36" s="82">
         <v>2</v>
       </c>
-      <c r="K31" s="69">
+      <c r="D36" s="82">
         <v>3</v>
       </c>
-      <c r="L31" s="69">
+      <c r="E36" s="82">
         <v>4</v>
       </c>
-      <c r="M31" s="69">
+      <c r="F36" s="82">
         <v>5</v>
       </c>
-      <c r="N31" s="69">
+      <c r="G36" s="82">
         <v>6</v>
       </c>
-      <c r="O31" s="33" t="s">
+      <c r="H36" s="52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A32" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
-        <v>50788</v>
-      </c>
-      <c r="O32" s="33"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
-        <v>33377</v>
-      </c>
-      <c r="O33" s="33"/>
-    </row>
-    <row r="34" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="66">
-        <v>439980</v>
-      </c>
-      <c r="C34" s="66">
-        <v>500584</v>
-      </c>
-      <c r="D34" s="66">
-        <v>485095</v>
-      </c>
-      <c r="E34" s="66">
-        <v>300834</v>
-      </c>
-      <c r="F34" s="66">
-        <v>224049</v>
-      </c>
-      <c r="G34" s="66">
-        <v>218281</v>
-      </c>
-      <c r="H34" s="84">
-        <f>SUM(B34:G34)</f>
-        <v>2168823</v>
-      </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66">
-        <v>208389</v>
-      </c>
-      <c r="O34" s="67"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="25">
+        <v>103987</v>
+      </c>
+      <c r="C37" s="3">
+        <v>123570</v>
+      </c>
+      <c r="D37" s="3">
+        <v>107907</v>
+      </c>
+      <c r="E37" s="3">
+        <v>71925</v>
+      </c>
+      <c r="F37" s="3">
+        <v>48573</v>
+      </c>
+      <c r="G37" s="3">
+        <v>50524</v>
+      </c>
+      <c r="H37" s="33">
+        <f>SUM(B37:G37)</f>
+        <v>506486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="25">
+        <v>80285</v>
+      </c>
+      <c r="C38" s="3">
+        <v>87846</v>
+      </c>
+      <c r="D38" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E38" s="3">
+        <v>53770</v>
+      </c>
+      <c r="F38" s="3">
+        <v>36215</v>
+      </c>
+      <c r="G38" s="3">
+        <v>33128</v>
+      </c>
+      <c r="H38" s="33">
+        <f t="shared" ref="H38:H39" si="11">SUM(B38:G38)</f>
+        <v>370844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="73">
+        <v>425687</v>
+      </c>
+      <c r="C39" s="74">
+        <v>475247</v>
+      </c>
+      <c r="D39" s="74">
+        <v>463908</v>
+      </c>
+      <c r="E39" s="74">
+        <v>283435</v>
+      </c>
+      <c r="F39" s="74">
+        <v>208231</v>
+      </c>
+      <c r="G39" s="74">
+        <v>207372</v>
+      </c>
+      <c r="H39" s="124">
+        <f t="shared" si="11"/>
+        <v>2063880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="50">
+        <v>103795</v>
+      </c>
+      <c r="C40" s="51">
+        <v>123360</v>
+      </c>
+      <c r="D40" s="51">
+        <v>107735</v>
+      </c>
+      <c r="E40" s="51">
+        <v>71809</v>
+      </c>
+      <c r="F40" s="51">
+        <v>48507</v>
+      </c>
+      <c r="G40" s="51">
+        <v>50459</v>
+      </c>
+      <c r="H40" s="52">
+        <f>SUM(B40:G40)</f>
+        <v>505665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="25">
+        <v>79827</v>
+      </c>
+      <c r="C41" s="3">
+        <v>87382</v>
+      </c>
+      <c r="D41" s="3">
+        <v>79211</v>
+      </c>
+      <c r="E41" s="3">
+        <v>53517</v>
+      </c>
+      <c r="F41" s="3">
+        <v>36063</v>
+      </c>
+      <c r="G41" s="3">
+        <v>32999</v>
+      </c>
+      <c r="H41" s="33">
+        <f t="shared" ref="H41:H42" si="12">SUM(B41:G41)</f>
+        <v>368999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="118">
+        <v>423548</v>
+      </c>
+      <c r="C42" s="66">
+        <v>472832</v>
+      </c>
+      <c r="D42" s="66">
+        <v>461516</v>
+      </c>
+      <c r="E42" s="66">
+        <v>281998</v>
+      </c>
+      <c r="F42" s="66">
+        <v>207311</v>
+      </c>
+      <c r="G42" s="66">
+        <v>206664</v>
+      </c>
+      <c r="H42" s="67">
+        <f t="shared" si="12"/>
+        <v>2053869</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="B9:AW9"/>
@@ -4503,6 +4907,12 @@
     <mergeCell ref="AD10:AJ10"/>
     <mergeCell ref="AK10:AQ10"/>
     <mergeCell ref="AR10:AW10"/>
+    <mergeCell ref="B1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
